--- a/kgstats-generated/2024.11.11/stats/xlsx/voc-8835-top-by-best-speed.xlsx
+++ b/kgstats-generated/2024.11.11/stats/xlsx/voc-8835-top-by-best-speed.xlsx
@@ -50,7 +50,7 @@
     <t>vaihayasa</t>
   </si>
   <si>
-    <t>18 ч. 25 мин. 4 сек.</t>
+    <t>18 ч. 25 мин. 04 сек.</t>
   </si>
   <si>
     <t>2</t>
@@ -101,7 +101,7 @@
     <t>Noob228</t>
   </si>
   <si>
-    <t>2 ч. 22 мин. 7 сек.</t>
+    <t>2 ч. 22 мин. 07 сек.</t>
   </si>
   <si>
     <t>8</t>
@@ -110,7 +110,7 @@
     <t>s0lnyshk0</t>
   </si>
   <si>
-    <t>30 ч. 2 мин. 36 сек.</t>
+    <t>30 ч. 02 мин. 36 сек.</t>
   </si>
   <si>
     <t>9</t>
@@ -119,7 +119,7 @@
     <t>razko</t>
   </si>
   <si>
-    <t>9 ч. 3 мин. 4 сек.</t>
+    <t>9 ч. 03 мин. 04 сек.</t>
   </si>
   <si>
     <t>10</t>
@@ -128,7 +128,7 @@
     <t>vault_dweller</t>
   </si>
   <si>
-    <t>43 ч. 6 мин. 13 сек.</t>
+    <t>43 ч. 06 мин. 13 сек.</t>
   </si>
   <si>
     <t>11</t>
@@ -155,13 +155,13 @@
     <t>Ivchik</t>
   </si>
   <si>
-    <t>3 ч. 9 мин. 56 сек.</t>
+    <t>3 ч. 09 мин. 56 сек.</t>
   </si>
   <si>
     <t>Muwka_C_CeBePa</t>
   </si>
   <si>
-    <t>7 ч. 26 мин. 8 сек.</t>
+    <t>7 ч. 26 мин. 08 сек.</t>
   </si>
   <si>
     <t>15</t>
@@ -194,7 +194,7 @@
     <t>Speedyman</t>
   </si>
   <si>
-    <t>46 ч. 0 мин. 56 сек.</t>
+    <t>46 ч. 00 мин. 56 сек.</t>
   </si>
   <si>
     <t>19</t>
@@ -203,7 +203,7 @@
     <t>M87</t>
   </si>
   <si>
-    <t>14 ч. 42 мин. 2 сек.</t>
+    <t>14 ч. 42 мин. 02 сек.</t>
   </si>
   <si>
     <t>20</t>
@@ -221,7 +221,7 @@
     <t>fermiparadox</t>
   </si>
   <si>
-    <t>235 ч. 8 мин. 37 сек.</t>
+    <t>235 ч. 08 мин. 37 сек.</t>
   </si>
   <si>
     <t>22</t>
@@ -248,7 +248,7 @@
     <t>Pelagiad</t>
   </si>
   <si>
-    <t>3 ч. 57 мин. 1 сек.</t>
+    <t>3 ч. 57 мин. 01 сек.</t>
   </si>
   <si>
     <t>25–26</t>
@@ -263,7 +263,7 @@
     <t>al1as</t>
   </si>
   <si>
-    <t>12 ч. 35 мин. 2 сек.</t>
+    <t>12 ч. 35 мин. 02 сек.</t>
   </si>
   <si>
     <t>27–28</t>
@@ -347,7 +347,7 @@
     <t>ivixivi</t>
   </si>
   <si>
-    <t>15 ч. 48 мин. 8 сек.</t>
+    <t>15 ч. 48 мин. 08 сек.</t>
   </si>
   <si>
     <t>37</t>
@@ -374,7 +374,7 @@
     <t>Толик_Цой</t>
   </si>
   <si>
-    <t>4 ч. 3 мин. 25 сек.</t>
+    <t>4 ч. 03 мин. 25 сек.</t>
   </si>
   <si>
     <t>40–41</t>
@@ -398,13 +398,13 @@
     <t>81243534355</t>
   </si>
   <si>
-    <t>5 ч. 20 мин. 2 сек.</t>
+    <t>5 ч. 20 мин. 02 сек.</t>
   </si>
   <si>
     <t>Eremite</t>
   </si>
   <si>
-    <t>14 ч. 4 мин. 37 сек.</t>
+    <t>14 ч. 04 мин. 37 сек.</t>
   </si>
   <si>
     <t>44</t>
@@ -422,7 +422,7 @@
     <t>Евсеев</t>
   </si>
   <si>
-    <t>4 ч. 23 мин. 6 сек.</t>
+    <t>4 ч. 23 мин. 06 сек.</t>
   </si>
   <si>
     <t>AlexUnder</t>
@@ -437,13 +437,13 @@
     <t>NIN</t>
   </si>
   <si>
-    <t>26 ч. 15 мин. 7 сек.</t>
+    <t>26 ч. 15 мин. 07 сек.</t>
   </si>
   <si>
     <t>Corleone99</t>
   </si>
   <si>
-    <t>50 ч. 25 мин. 8 сек.</t>
+    <t>50 ч. 25 мин. 08 сек.</t>
   </si>
   <si>
     <t>49–50</t>
@@ -476,7 +476,7 @@
     <t>AvtandiLine</t>
   </si>
   <si>
-    <t>35 ч. 5 мин. 34 сек.</t>
+    <t>35 ч. 05 мин. 34 сек.</t>
   </si>
   <si>
     <t>53</t>
@@ -503,7 +503,7 @@
     <t>LevShumilov</t>
   </si>
   <si>
-    <t>7 ч. 16 мин. 6 сек.</t>
+    <t>7 ч. 16 мин. 06 сек.</t>
   </si>
   <si>
     <t>56</t>
@@ -548,7 +548,7 @@
     <t>NDancer</t>
   </si>
   <si>
-    <t>140 ч. 5 мин. 49 сек.</t>
+    <t>140 ч. 05 мин. 49 сек.</t>
   </si>
   <si>
     <t>61</t>
@@ -605,7 +605,7 @@
     <t>Пичалька</t>
   </si>
   <si>
-    <t>4 ч. 18 мин. 2 сек.</t>
+    <t>4 ч. 18 мин. 02 сек.</t>
   </si>
   <si>
     <t>libertadore</t>
@@ -626,7 +626,7 @@
     <t>A-Cor</t>
   </si>
   <si>
-    <t>35 ч. 3 мин. 5 сек.</t>
+    <t>35 ч. 03 мин. 05 сек.</t>
   </si>
   <si>
     <t>71</t>
@@ -668,7 +668,7 @@
     <t>Enrage</t>
   </si>
   <si>
-    <t>6 ч. 6 мин. 14 сек.</t>
+    <t>6 ч. 06 мин. 14 сек.</t>
   </si>
   <si>
     <t>76</t>
@@ -677,7 +677,7 @@
     <t>Бейн</t>
   </si>
   <si>
-    <t>46 ч. 43 мин. 7 сек.</t>
+    <t>46 ч. 43 мин. 07 сек.</t>
   </si>
   <si>
     <t>77</t>
@@ -695,7 +695,7 @@
     <t>maks-</t>
   </si>
   <si>
-    <t>6 ч. 4 мин. 16 сек.</t>
+    <t>6 ч. 04 мин. 16 сек.</t>
   </si>
   <si>
     <t>Dimanus</t>
@@ -707,7 +707,7 @@
     <t>Guepard</t>
   </si>
   <si>
-    <t>6 ч. 3 мин. 14 сек.</t>
+    <t>6 ч. 03 мин. 14 сек.</t>
   </si>
   <si>
     <t>muchomor</t>
@@ -719,7 +719,7 @@
     <t>cybranker</t>
   </si>
   <si>
-    <t>33 ч. 56 мин. 0 сек.</t>
+    <t>33 ч. 56 мин. 00 сек.</t>
   </si>
   <si>
     <t>83–86</t>
@@ -734,19 +734,19 @@
     <t>artt</t>
   </si>
   <si>
-    <t>10 ч. 28 мин. 5 сек.</t>
+    <t>10 ч. 28 мин. 05 сек.</t>
   </si>
   <si>
     <t>tmpd</t>
   </si>
   <si>
-    <t>10 ч. 6 мин. 3 сек.</t>
+    <t>10 ч. 06 мин. 03 сек.</t>
   </si>
   <si>
     <t>haos2100</t>
   </si>
   <si>
-    <t>24 ч. 6 мин. 25 сек.</t>
+    <t>24 ч. 06 мин. 25 сек.</t>
   </si>
   <si>
     <t>87–89</t>
@@ -755,19 +755,19 @@
     <t>MaestroPain</t>
   </si>
   <si>
-    <t>3 ч. 9 мин. 24 сек.</t>
+    <t>3 ч. 09 мин. 24 сек.</t>
   </si>
   <si>
     <t>oyasumi</t>
   </si>
   <si>
-    <t>5 ч. 6 мин. 24 сек.</t>
+    <t>5 ч. 06 мин. 24 сек.</t>
   </si>
   <si>
     <t>batkovich</t>
   </si>
   <si>
-    <t>7 ч. 18 мин. 9 сек.</t>
+    <t>7 ч. 18 мин. 09 сек.</t>
   </si>
   <si>
     <t>90</t>
@@ -827,7 +827,7 @@
     <t>Alanik</t>
   </si>
   <si>
-    <t>23 ч. 9 мин. 20 сек.</t>
+    <t>23 ч. 09 мин. 20 сек.</t>
   </si>
   <si>
     <t>97–99</t>
@@ -842,13 +842,13 @@
     <t>Z-i-b-e-r-t</t>
   </si>
   <si>
-    <t>8 ч. 0 мин. 20 сек.</t>
+    <t>8 ч. 00 мин. 20 сек.</t>
   </si>
   <si>
     <t>valeryani</t>
   </si>
   <si>
-    <t>29 ч. 6 мин. 35 сек.</t>
+    <t>29 ч. 06 мин. 35 сек.</t>
   </si>
   <si>
     <t>100–102</t>
@@ -962,7 +962,7 @@
     <t>Oyvse</t>
   </si>
   <si>
-    <t>4 ч. 22 мин. 9 сек.</t>
+    <t>4 ч. 22 мин. 09 сек.</t>
   </si>
   <si>
     <t>114</t>
@@ -1034,7 +1034,7 @@
     <t>Bolot</t>
   </si>
   <si>
-    <t>4 ч. 45 мин. 0 сек.</t>
+    <t>4 ч. 45 мин. 00 сек.</t>
   </si>
   <si>
     <t>AlexVoF</t>
@@ -1079,7 +1079,7 @@
     <t>FarWin</t>
   </si>
   <si>
-    <t>29 ч. 38 мин. 9 сек.</t>
+    <t>29 ч. 38 мин. 09 сек.</t>
   </si>
   <si>
     <t>129</t>
@@ -1097,13 +1097,13 @@
     <t>forsaZ</t>
   </si>
   <si>
-    <t>3 ч. 54 мин. 8 сек.</t>
+    <t>3 ч. 54 мин. 08 сек.</t>
   </si>
   <si>
     <t>beb0p</t>
   </si>
   <si>
-    <t>4 ч. 29 мин. 8 сек.</t>
+    <t>4 ч. 29 мин. 08 сек.</t>
   </si>
   <si>
     <t>132–133</t>
@@ -1160,7 +1160,7 @@
     <t>azukun</t>
   </si>
   <si>
-    <t>5 ч. 0 мин. 24 сек.</t>
+    <t>5 ч. 00 мин. 24 сек.</t>
   </si>
   <si>
     <t>PROcent</t>
@@ -1184,13 +1184,13 @@
     <t>AlexSIBER</t>
   </si>
   <si>
-    <t>6 ч. 1 мин. 4 сек.</t>
+    <t>6 ч. 01 мин. 04 сек.</t>
   </si>
   <si>
     <t>puchkarito</t>
   </si>
   <si>
-    <t>9 ч. 1 мин. 16 сек.</t>
+    <t>9 ч. 01 мин. 16 сек.</t>
   </si>
   <si>
     <t>143–146</t>
@@ -1205,7 +1205,7 @@
     <t>Велимира</t>
   </si>
   <si>
-    <t>9 ч. 6 мин. 1 сек.</t>
+    <t>9 ч. 06 мин. 01 сек.</t>
   </si>
   <si>
     <t>Pale_Rider</t>
@@ -1217,7 +1217,7 @@
     <t>HeLLios</t>
   </si>
   <si>
-    <t>13 ч. 6 мин. 16 сек.</t>
+    <t>13 ч. 06 мин. 16 сек.</t>
   </si>
   <si>
     <t>147</t>
@@ -1241,19 +1241,19 @@
     <t>Fermmer</t>
   </si>
   <si>
-    <t>12 ч. 4 мин. 15 сек.</t>
+    <t>12 ч. 04 мин. 15 сек.</t>
   </si>
   <si>
     <t>Sady</t>
   </si>
   <si>
-    <t>25 ч. 6 мин. 19 сек.</t>
+    <t>25 ч. 06 мин. 19 сек.</t>
   </si>
   <si>
     <t>Джиперс_Криперс</t>
   </si>
   <si>
-    <t>115 ч. 41 мин. 0 сек.</t>
+    <t>115 ч. 41 мин. 00 сек.</t>
   </si>
   <si>
     <t>152–154</t>
@@ -1268,13 +1268,13 @@
     <t>komaz</t>
   </si>
   <si>
-    <t>9 ч. 44 мин. 1 сек.</t>
+    <t>9 ч. 44 мин. 01 сек.</t>
   </si>
   <si>
     <t>Aleks85</t>
   </si>
   <si>
-    <t>35 ч. 10 мин. 1 сек.</t>
+    <t>35 ч. 10 мин. 01 сек.</t>
   </si>
   <si>
     <t>155</t>
@@ -1283,7 +1283,7 @@
     <t>Bucky</t>
   </si>
   <si>
-    <t>7 ч. 0 мин. 31 сек.</t>
+    <t>7 ч. 00 мин. 31 сек.</t>
   </si>
   <si>
     <t>156–158</t>
@@ -1313,7 +1313,7 @@
     <t>JohnStone</t>
   </si>
   <si>
-    <t>16 ч. 50 мин. 1 сек.</t>
+    <t>16 ч. 50 мин. 01 сек.</t>
   </si>
   <si>
     <t>160–162</t>
@@ -1322,7 +1322,7 @@
     <t>Vk625</t>
   </si>
   <si>
-    <t>6 ч. 8 мин. 35 сек.</t>
+    <t>6 ч. 08 мин. 35 сек.</t>
   </si>
   <si>
     <t>kudeoni</t>
@@ -1334,7 +1334,7 @@
     <t>Azurit</t>
   </si>
   <si>
-    <t>7 ч. 45 мин. 4 сек.</t>
+    <t>7 ч. 45 мин. 04 сек.</t>
   </si>
   <si>
     <t>163</t>
@@ -1358,7 +1358,7 @@
     <t>pche1</t>
   </si>
   <si>
-    <t>56 ч. 58 мин. 9 сек.</t>
+    <t>56 ч. 58 мин. 09 сек.</t>
   </si>
   <si>
     <t>166–167</t>
@@ -1367,7 +1367,7 @@
     <t>sav1</t>
   </si>
   <si>
-    <t>5 ч. 33 мин. 3 сек.</t>
+    <t>5 ч. 33 мин. 03 сек.</t>
   </si>
   <si>
     <t>carmero</t>
@@ -1382,7 +1382,7 @@
     <t>Glavredzlovred</t>
   </si>
   <si>
-    <t>15 ч. 4 мин. 54 сек.</t>
+    <t>15 ч. 04 мин. 54 сек.</t>
   </si>
   <si>
     <t>breakyourvision</t>
@@ -1427,7 +1427,7 @@
     <t>merely</t>
   </si>
   <si>
-    <t>8 ч. 8 мин. 51 сек.</t>
+    <t>8 ч. 08 мин. 51 сек.</t>
   </si>
   <si>
     <t>Locust</t>
@@ -1466,7 +1466,7 @@
     <t>_dp_</t>
   </si>
   <si>
-    <t>4 ч. 25 мин. 5 сек.</t>
+    <t>4 ч. 25 мин. 05 сек.</t>
   </si>
   <si>
     <t>Oknevor</t>
@@ -1487,7 +1487,7 @@
     <t>AHTOH</t>
   </si>
   <si>
-    <t>6 ч. 3 мин. 34 сек.</t>
+    <t>6 ч. 03 мин. 34 сек.</t>
   </si>
   <si>
     <t>VladimirZhirov</t>
@@ -1508,7 +1508,7 @@
     <t>maccoll</t>
   </si>
   <si>
-    <t>10 ч. 12 мин. 8 сек.</t>
+    <t>10 ч. 12 мин. 08 сек.</t>
   </si>
   <si>
     <t>186</t>
@@ -1526,7 +1526,7 @@
     <t>nyashermyasher</t>
   </si>
   <si>
-    <t>8 ч. 8 мин. 14 сек.</t>
+    <t>8 ч. 08 мин. 14 сек.</t>
   </si>
   <si>
     <t>Aframensy</t>
@@ -1559,7 +1559,7 @@
     <t>ifer</t>
   </si>
   <si>
-    <t>11 ч. 2 мин. 22 сек.</t>
+    <t>11 ч. 02 мин. 22 сек.</t>
   </si>
   <si>
     <t>192–194</t>
@@ -1568,7 +1568,7 @@
     <t>art_gl</t>
   </si>
   <si>
-    <t>3 ч. 47 мин. 8 сек.</t>
+    <t>3 ч. 47 мин. 08 сек.</t>
   </si>
   <si>
     <t>Krasovka</t>
@@ -1595,13 +1595,13 @@
     <t>grismond</t>
   </si>
   <si>
-    <t>17 ч. 7 мин. 19 сек.</t>
+    <t>17 ч. 07 мин. 19 сек.</t>
   </si>
   <si>
     <t>_Reactive</t>
   </si>
   <si>
-    <t>21 ч. 3 мин. 35 сек.</t>
+    <t>21 ч. 03 мин. 35 сек.</t>
   </si>
   <si>
     <t>198</t>
@@ -1628,7 +1628,7 @@
     <t>MrSir</t>
   </si>
   <si>
-    <t>6 ч. 56 мин. 1 сек.</t>
+    <t>6 ч. 56 мин. 01 сек.</t>
   </si>
   <si>
     <t>marvelage</t>
@@ -1649,7 +1649,7 @@
     <t>violaint</t>
   </si>
   <si>
-    <t>8 ч. 4 мин. 40 сек.</t>
+    <t>8 ч. 04 мин. 40 сек.</t>
   </si>
   <si>
     <t>204</t>
@@ -1658,7 +1658,7 @@
     <t>pomponchic</t>
   </si>
   <si>
-    <t>8 ч. 21 мин. 5 сек.</t>
+    <t>8 ч. 21 мин. 05 сек.</t>
   </si>
   <si>
     <t>205</t>
@@ -1706,7 +1706,7 @@
     <t>ZeeVi</t>
   </si>
   <si>
-    <t>8 ч. 1 мин. 0 сек.</t>
+    <t>8 ч. 01 мин. 00 сек.</t>
   </si>
   <si>
     <t>_Tuki_Tuki_</t>
@@ -1739,7 +1739,7 @@
     <t>fallen_dante</t>
   </si>
   <si>
-    <t>5 ч. 10 мин. 5 сек.</t>
+    <t>5 ч. 10 мин. 05 сек.</t>
   </si>
   <si>
     <t>SpazZm</t>
@@ -1751,7 +1751,7 @@
     <t>Vovaldo</t>
   </si>
   <si>
-    <t>37 ч. 7 мин. 41 сек.</t>
+    <t>37 ч. 07 мин. 41 сек.</t>
   </si>
   <si>
     <t>217</t>
@@ -1775,7 +1775,7 @@
     <t>SereDim</t>
   </si>
   <si>
-    <t>153 ч. 9 мин. 22 сек.</t>
+    <t>153 ч. 09 мин. 22 сек.</t>
   </si>
   <si>
     <t>220–224</t>
@@ -1790,7 +1790,7 @@
     <t>stag_</t>
   </si>
   <si>
-    <t>11 ч. 7 мин. 48 сек.</t>
+    <t>11 ч. 07 мин. 48 сек.</t>
   </si>
   <si>
     <t>galileo-job</t>
@@ -1808,7 +1808,7 @@
     <t>трамвайчик</t>
   </si>
   <si>
-    <t>142 ч. 8 мин. 47 сек.</t>
+    <t>142 ч. 08 мин. 47 сек.</t>
   </si>
   <si>
     <t>225–226</t>
@@ -1817,7 +1817,7 @@
     <t>mavdix</t>
   </si>
   <si>
-    <t>6 ч. 7 мин. 55 сек.</t>
+    <t>6 ч. 07 мин. 55 сек.</t>
   </si>
   <si>
     <t>dmitriylishtvan</t>
@@ -1841,7 +1841,7 @@
     <t>Lakira</t>
   </si>
   <si>
-    <t>9 ч. 3 мин. 9 сек.</t>
+    <t>9 ч. 03 мин. 09 сек.</t>
   </si>
   <si>
     <t>229–232</t>
@@ -1883,7 +1883,7 @@
     <t>nullfasss22</t>
   </si>
   <si>
-    <t>21 ч. 39 мин. 5 сек.</t>
+    <t>21 ч. 39 мин. 05 сек.</t>
   </si>
   <si>
     <t>235–236</t>
@@ -1892,7 +1892,7 @@
     <t>KOSTYA410</t>
   </si>
   <si>
-    <t>8 ч. 3 мин. 44 сек.</t>
+    <t>8 ч. 03 мин. 44 сек.</t>
   </si>
   <si>
     <t>Nowhereman42nd</t>
@@ -1943,7 +1943,7 @@
     <t>psixodyb</t>
   </si>
   <si>
-    <t>12 ч. 26 мин. 4 сек.</t>
+    <t>12 ч. 26 мин. 04 сек.</t>
   </si>
   <si>
     <t>243</t>
@@ -1952,7 +1952,7 @@
     <t>Sonick071</t>
   </si>
   <si>
-    <t>8 ч. 57 мин. 5 сек.</t>
+    <t>8 ч. 57 мин. 05 сек.</t>
   </si>
   <si>
     <t>244</t>
@@ -2000,7 +2000,7 @@
     <t>YLLIACTbIu</t>
   </si>
   <si>
-    <t>27 ч. 6 мин. 50 сек.</t>
+    <t>27 ч. 06 мин. 50 сек.</t>
   </si>
   <si>
     <t>250</t>
@@ -2033,13 +2033,13 @@
     <t>Кот_Черныш</t>
   </si>
   <si>
-    <t>12 ч. 2 мин. 35 сек.</t>
+    <t>12 ч. 02 мин. 35 сек.</t>
   </si>
   <si>
     <t>antoshagagarin1</t>
   </si>
   <si>
-    <t>66 ч. 16 мин. 4 сек.</t>
+    <t>66 ч. 16 мин. 04 сек.</t>
   </si>
   <si>
     <t>seitzhandias123</t>
@@ -2060,7 +2060,7 @@
     <t>я_араб</t>
   </si>
   <si>
-    <t>7 ч. 47 мин. 8 сек.</t>
+    <t>7 ч. 47 мин. 08 сек.</t>
   </si>
   <si>
     <t>Doode</t>
@@ -2108,7 +2108,7 @@
     <t>hotshot</t>
   </si>
   <si>
-    <t>7 ч. 57 мин. 2 сек.</t>
+    <t>7 ч. 57 мин. 02 сек.</t>
   </si>
   <si>
     <t>265–267</t>
@@ -2117,7 +2117,7 @@
     <t>Аромат</t>
   </si>
   <si>
-    <t>6 ч. 59 мин. 2 сек.</t>
+    <t>6 ч. 59 мин. 02 сек.</t>
   </si>
   <si>
     <t>mishlen79</t>
@@ -2138,7 +2138,7 @@
     <t>vulpinex</t>
   </si>
   <si>
-    <t>4 ч. 35 мин. 0 сек.</t>
+    <t>4 ч. 35 мин. 00 сек.</t>
   </si>
   <si>
     <t>kent_avr</t>
@@ -2150,7 +2150,7 @@
     <t>plop</t>
   </si>
   <si>
-    <t>7 ч. 0 мин. 56 сек.</t>
+    <t>7 ч. 00 мин. 56 сек.</t>
   </si>
   <si>
     <t>kostyan13</t>
@@ -2171,13 +2171,13 @@
     <t>Russel_Poltava</t>
   </si>
   <si>
-    <t>11 ч. 0 мин. 15 сек.</t>
+    <t>11 ч. 00 мин. 15 сек.</t>
   </si>
   <si>
     <t>Vadim_K</t>
   </si>
   <si>
-    <t>16 ч. 7 мин. 55 сек.</t>
+    <t>16 ч. 07 мин. 55 сек.</t>
   </si>
   <si>
     <t>Darrion</t>
@@ -2213,13 +2213,13 @@
     <t>akinojes</t>
   </si>
   <si>
-    <t>8 ч. 55 мин. 0 сек.</t>
+    <t>8 ч. 55 мин. 00 сек.</t>
   </si>
   <si>
     <t>Spaider</t>
   </si>
   <si>
-    <t>13 ч. 2 мин. 30 сек.</t>
+    <t>13 ч. 02 мин. 30 сек.</t>
   </si>
   <si>
     <t>281</t>
@@ -2228,7 +2228,7 @@
     <t>needsuicide</t>
   </si>
   <si>
-    <t>5 ч. 4 мин. 12 сек.</t>
+    <t>5 ч. 04 мин. 12 сек.</t>
   </si>
   <si>
     <t>282</t>
@@ -2237,7 +2237,7 @@
     <t>trackstarrr</t>
   </si>
   <si>
-    <t>47 ч. 3 мин. 15 сек.</t>
+    <t>47 ч. 03 мин. 15 сек.</t>
   </si>
   <si>
     <t>283</t>
@@ -2261,7 +2261,7 @@
     <t>Ethicon</t>
   </si>
   <si>
-    <t>14 ч. 16 мин. 0 сек.</t>
+    <t>14 ч. 16 мин. 00 сек.</t>
   </si>
   <si>
     <t>Пани_Тыковка</t>
@@ -2297,13 +2297,13 @@
     <t>Althea_Fullmoon</t>
   </si>
   <si>
-    <t>10 ч. 2 мин. 19 сек.</t>
+    <t>10 ч. 02 мин. 19 сек.</t>
   </si>
   <si>
     <t>Radheart</t>
   </si>
   <si>
-    <t>31 ч. 59 мин. 9 сек.</t>
+    <t>31 ч. 59 мин. 09 сек.</t>
   </si>
   <si>
     <t>292</t>
@@ -2321,7 +2321,7 @@
     <t>Alukos</t>
   </si>
   <si>
-    <t>43 ч. 21 мин. 8 сек.</t>
+    <t>43 ч. 21 мин. 08 сек.</t>
   </si>
   <si>
     <t>294–295</t>
@@ -2354,7 +2354,7 @@
     <t>suenot</t>
   </si>
   <si>
-    <t>4 ч. 43 мин. 4 сек.</t>
+    <t>4 ч. 43 мин. 04 сек.</t>
   </si>
   <si>
     <t>298</t>
@@ -2372,7 +2372,7 @@
     <t>moonwwwind</t>
   </si>
   <si>
-    <t>10 ч. 5 мин. 17 сек.</t>
+    <t>10 ч. 05 мин. 17 сек.</t>
   </si>
   <si>
     <t>YuriyUs</t>
@@ -2402,7 +2402,7 @@
     <t>motivation</t>
   </si>
   <si>
-    <t>7 ч. 1 мин. 14 сек.</t>
+    <t>7 ч. 01 мин. 14 сек.</t>
   </si>
   <si>
     <t>304–307</t>
@@ -2417,19 +2417,19 @@
     <t>expollux</t>
   </si>
   <si>
-    <t>6 ч. 50 мин. 4 сек.</t>
+    <t>6 ч. 50 мин. 04 сек.</t>
   </si>
   <si>
     <t>KaliaN-93RUS</t>
   </si>
   <si>
-    <t>8 ч. 4 мин. 21 сек.</t>
+    <t>8 ч. 04 мин. 21 сек.</t>
   </si>
   <si>
     <t>Zzzuzuka</t>
   </si>
   <si>
-    <t>12 ч. 14 мин. 1 сек.</t>
+    <t>12 ч. 14 мин. 01 сек.</t>
   </si>
   <si>
     <t>308–311</t>
@@ -2522,7 +2522,7 @@
     <t>kulinich</t>
   </si>
   <si>
-    <t>8 ч. 17 мин. 8 сек.</t>
+    <t>8 ч. 17 мин. 08 сек.</t>
   </si>
   <si>
     <t>doni-desing</t>
@@ -2558,13 +2558,13 @@
     <t>lep</t>
   </si>
   <si>
-    <t>10 ч. 30 мин. 0 сек.</t>
+    <t>10 ч. 30 мин. 00 сек.</t>
   </si>
   <si>
     <t>Selica</t>
   </si>
   <si>
-    <t>10 ч. 7 мин. 44 сек.</t>
+    <t>10 ч. 07 мин. 44 сек.</t>
   </si>
   <si>
     <t>AK_4032</t>
@@ -2606,7 +2606,7 @@
     <t>AvrilLavigne</t>
   </si>
   <si>
-    <t>17 ч. 15 мин. 3 сек.</t>
+    <t>17 ч. 15 мин. 03 сек.</t>
   </si>
   <si>
     <t>333–335</t>
@@ -2624,7 +2624,7 @@
     <t>Богданов</t>
   </si>
   <si>
-    <t>20 ч. 13 мин. 9 сек.</t>
+    <t>20 ч. 13 мин. 09 сек.</t>
   </si>
   <si>
     <t>336</t>
@@ -2672,7 +2672,7 @@
     <t>Ggegeg</t>
   </si>
   <si>
-    <t>19 ч. 23 мин. 0 сек.</t>
+    <t>19 ч. 23 мин. 00 сек.</t>
   </si>
   <si>
     <t>342</t>
@@ -2705,7 +2705,7 @@
     <t>Ямастер</t>
   </si>
   <si>
-    <t>7 ч. 29 мин. 7 сек.</t>
+    <t>7 ч. 29 мин. 07 сек.</t>
   </si>
   <si>
     <t>Фаст</t>
@@ -2726,7 +2726,7 @@
     <t>Verhovyh</t>
   </si>
   <si>
-    <t>6 ч. 5 мин. 25 сек.</t>
+    <t>6 ч. 05 мин. 25 сек.</t>
   </si>
   <si>
     <t>snov</t>
@@ -2756,7 +2756,7 @@
     <t>Loldet</t>
   </si>
   <si>
-    <t>16 ч. 9 мин. 46 сек.</t>
+    <t>16 ч. 09 мин. 46 сек.</t>
   </si>
   <si>
     <t>353–354</t>
@@ -2780,7 +2780,7 @@
     <t>centryfuga</t>
   </si>
   <si>
-    <t>5 ч. 7 мин. 8 сек.</t>
+    <t>5 ч. 07 мин. 08 сек.</t>
   </si>
   <si>
     <t>356–357</t>
@@ -2804,7 +2804,7 @@
     <t>SVolin99</t>
   </si>
   <si>
-    <t>7 ч. 1 мин. 8 сек.</t>
+    <t>7 ч. 01 мин. 08 сек.</t>
   </si>
   <si>
     <t>tinto</t>
@@ -2870,13 +2870,13 @@
     <t>Reijaff</t>
   </si>
   <si>
-    <t>14 ч. 15 мин. 2 сек.</t>
+    <t>14 ч. 15 мин. 02 сек.</t>
   </si>
   <si>
     <t>azatik888</t>
   </si>
   <si>
-    <t>12 ч. 41 мин. 9 сек.</t>
+    <t>12 ч. 41 мин. 09 сек.</t>
   </si>
   <si>
     <t>369–370</t>
@@ -2885,13 +2885,13 @@
     <t>heavy_ezh</t>
   </si>
   <si>
-    <t>6 ч. 55 мин. 4 сек.</t>
+    <t>6 ч. 55 мин. 04 сек.</t>
   </si>
   <si>
     <t>Yakadzum</t>
   </si>
   <si>
-    <t>29 ч. 22 мин. 7 сек.</t>
+    <t>29 ч. 22 мин. 07 сек.</t>
   </si>
   <si>
     <t>371</t>
@@ -2900,7 +2900,7 @@
     <t>Lost-Control</t>
   </si>
   <si>
-    <t>7 ч. 0 мин. 7 сек.</t>
+    <t>7 ч. 00 мин. 07 сек.</t>
   </si>
   <si>
     <t>372–375</t>
@@ -2936,13 +2936,13 @@
     <t>ReXofuS</t>
   </si>
   <si>
-    <t>6 ч. 9 мин. 1 сек.</t>
+    <t>6 ч. 09 мин. 01 сек.</t>
   </si>
   <si>
     <t>kvdum</t>
   </si>
   <si>
-    <t>7 ч. 8 мин. 54 сек.</t>
+    <t>7 ч. 08 мин. 54 сек.</t>
   </si>
   <si>
     <t>hazartilirot</t>
@@ -2954,7 +2954,7 @@
     <t>CyrCyr</t>
   </si>
   <si>
-    <t>15 ч. 7 мин. 9 сек.</t>
+    <t>15 ч. 07 мин. 09 сек.</t>
   </si>
   <si>
     <t>380–381</t>
@@ -2969,7 +2969,7 @@
     <t>gomozek</t>
   </si>
   <si>
-    <t>9 ч. 45 мин. 1 сек.</t>
+    <t>9 ч. 45 мин. 01 сек.</t>
   </si>
   <si>
     <t>382–383</t>
@@ -2993,7 +2993,7 @@
     <t>Reflex10n</t>
   </si>
   <si>
-    <t>17 ч. 12 мин. 4 сек.</t>
+    <t>17 ч. 12 мин. 04 сек.</t>
   </si>
   <si>
     <t>385–387</t>
@@ -3029,7 +3029,7 @@
     <t>iBumble</t>
   </si>
   <si>
-    <t>8 ч. 1 мин. 18 сек.</t>
+    <t>8 ч. 01 мин. 18 сек.</t>
   </si>
   <si>
     <t>spatt</t>
@@ -3062,13 +3062,13 @@
     <t>Grizzly284</t>
   </si>
   <si>
-    <t>11 ч. 55 мин. 0 сек.</t>
+    <t>11 ч. 55 мин. 00 сек.</t>
   </si>
   <si>
     <t>Andzenima</t>
   </si>
   <si>
-    <t>45 ч. 10 мин. 7 сек.</t>
+    <t>45 ч. 10 мин. 07 сек.</t>
   </si>
   <si>
     <t>396–397</t>
@@ -3083,7 +3083,7 @@
     <t>butcherqq</t>
   </si>
   <si>
-    <t>40 ч. 11 мин. 3 сек.</t>
+    <t>40 ч. 11 мин. 03 сек.</t>
   </si>
   <si>
     <t>398–399</t>
@@ -3107,13 +3107,13 @@
     <t>viten</t>
   </si>
   <si>
-    <t>6 ч. 4 мин. 24 сек.</t>
+    <t>6 ч. 04 мин. 24 сек.</t>
   </si>
   <si>
     <t>Leshiy239</t>
   </si>
   <si>
-    <t>8 ч. 35 мин. 9 сек.</t>
+    <t>8 ч. 35 мин. 09 сек.</t>
   </si>
   <si>
     <t>Erixonich</t>
@@ -3158,7 +3158,7 @@
     <t>smith-</t>
   </si>
   <si>
-    <t>8 ч. 39 мин. 1 сек.</t>
+    <t>8 ч. 39 мин. 01 сек.</t>
   </si>
   <si>
     <t>Rain</t>
@@ -3185,7 +3185,7 @@
     <t>gosknyaz</t>
   </si>
   <si>
-    <t>8 ч. 4 мин. 30 сек.</t>
+    <t>8 ч. 04 мин. 30 сек.</t>
   </si>
   <si>
     <t>412</t>
@@ -3194,7 +3194,7 @@
     <t>potykk</t>
   </si>
   <si>
-    <t>11 ч. 6 мин. 41 сек.</t>
+    <t>11 ч. 06 мин. 41 сек.</t>
   </si>
   <si>
     <t>413–415</t>
@@ -3209,7 +3209,7 @@
     <t>epicprime</t>
   </si>
   <si>
-    <t>22 ч. 5 мин. 46 сек.</t>
+    <t>22 ч. 05 мин. 46 сек.</t>
   </si>
   <si>
     <t>Ujin0505</t>
@@ -3230,7 +3230,7 @@
     <t>rar17</t>
   </si>
   <si>
-    <t>8 ч. 8 мин. 47 сек.</t>
+    <t>8 ч. 08 мин. 47 сек.</t>
   </si>
   <si>
     <t>alexander_v93</t>
@@ -3248,7 +3248,7 @@
     <t>vova1290</t>
   </si>
   <si>
-    <t>68 ч. 39 мин. 3 сек.</t>
+    <t>68 ч. 39 мин. 03 сек.</t>
   </si>
   <si>
     <t>421–422</t>
@@ -3287,7 +3287,7 @@
     <t>daxundaintravel</t>
   </si>
   <si>
-    <t>15 ч. 30 мин. 3 сек.</t>
+    <t>15 ч. 30 мин. 03 сек.</t>
   </si>
   <si>
     <t>Nispoon</t>
@@ -3302,7 +3302,7 @@
     <t>8788</t>
   </si>
   <si>
-    <t>21 ч. 7 мин. 15 сек.</t>
+    <t>21 ч. 07 мин. 15 сек.</t>
   </si>
   <si>
     <t>vini-puh</t>
@@ -3317,7 +3317,7 @@
     <t>kastiell90</t>
   </si>
   <si>
-    <t>6 ч. 14 мин. 3 сек.</t>
+    <t>6 ч. 14 мин. 03 сек.</t>
   </si>
   <si>
     <t>Сидхартха</t>
@@ -3332,7 +3332,7 @@
     <t>неторопыжка</t>
   </si>
   <si>
-    <t>8 ч. 5 мин. 48 сек.</t>
+    <t>8 ч. 05 мин. 48 сек.</t>
   </si>
   <si>
     <t>vyach-psh</t>
@@ -3371,7 +3371,7 @@
     <t>Mc2000</t>
   </si>
   <si>
-    <t>6 ч. 36 мин. 1 сек.</t>
+    <t>6 ч. 36 мин. 01 сек.</t>
   </si>
   <si>
     <t>ilshat</t>
@@ -3461,7 +3461,7 @@
     <t>klnmln</t>
   </si>
   <si>
-    <t>9 ч. 3 мин. 43 сек.</t>
+    <t>9 ч. 03 мин. 43 сек.</t>
   </si>
   <si>
     <t>psychopat</t>
@@ -3491,19 +3491,19 @@
     <t>barto123</t>
   </si>
   <si>
-    <t>13 ч. 9 мин. 43 сек.</t>
+    <t>13 ч. 09 мин. 43 сек.</t>
   </si>
   <si>
     <t>maikttt</t>
   </si>
   <si>
-    <t>34 ч. 57 мин. 5 сек.</t>
+    <t>34 ч. 57 мин. 05 сек.</t>
   </si>
   <si>
     <t>ArtHare</t>
   </si>
   <si>
-    <t>35 ч. 4 мин. 3 сек.</t>
+    <t>35 ч. 04 мин. 03 сек.</t>
   </si>
   <si>
     <t>455</t>
@@ -3512,7 +3512,7 @@
     <t>ВкусВетра</t>
   </si>
   <si>
-    <t>16 ч. 22 мин. 1 сек.</t>
+    <t>16 ч. 22 мин. 01 сек.</t>
   </si>
   <si>
     <t>456</t>
@@ -3536,7 +3536,7 @@
     <t>inteltone</t>
   </si>
   <si>
-    <t>6 ч. 54 мин. 5 сек.</t>
+    <t>6 ч. 54 мин. 05 сек.</t>
   </si>
   <si>
     <t>Alekseyra</t>
@@ -3578,7 +3578,7 @@
     <t>Kingwords</t>
   </si>
   <si>
-    <t>15 ч. 33 мин. 6 сек.</t>
+    <t>15 ч. 33 мин. 06 сек.</t>
   </si>
   <si>
     <t>464</t>
@@ -3596,7 +3596,7 @@
     <t>acter</t>
   </si>
   <si>
-    <t>8 ч. 2 мин. 27 сек.</t>
+    <t>8 ч. 02 мин. 27 сек.</t>
   </si>
   <si>
     <t>ygricks</t>
@@ -3638,7 +3638,7 @@
     <t>dmitry117</t>
   </si>
   <si>
-    <t>41 ч. 3 мин. 50 сек.</t>
+    <t>41 ч. 03 мин. 50 сек.</t>
   </si>
   <si>
     <t>471–473</t>
@@ -3701,7 +3701,7 @@
     <t>sndbox</t>
   </si>
   <si>
-    <t>8 ч. 26 мин. 4 сек.</t>
+    <t>8 ч. 26 мин. 04 сек.</t>
   </si>
   <si>
     <t>479</t>
@@ -3758,7 +3758,7 @@
     <t>keshanavzlet</t>
   </si>
   <si>
-    <t>9 ч. 0 мин. 9 сек.</t>
+    <t>9 ч. 00 мин. 09 сек.</t>
   </si>
   <si>
     <t>486</t>
@@ -3767,7 +3767,7 @@
     <t>paul566576</t>
   </si>
   <si>
-    <t>10 ч. 24 мин. 6 сек.</t>
+    <t>10 ч. 24 мин. 06 сек.</t>
   </si>
   <si>
     <t>487</t>
@@ -3776,7 +3776,7 @@
     <t>rapiru</t>
   </si>
   <si>
-    <t>8 ч. 0 мин. 38 сек.</t>
+    <t>8 ч. 00 мин. 38 сек.</t>
   </si>
   <si>
     <t>488–489</t>
@@ -3800,7 +3800,7 @@
     <t>MachoMaNNN</t>
   </si>
   <si>
-    <t>10 ч. 57 мин. 1 сек.</t>
+    <t>10 ч. 57 мин. 01 сек.</t>
   </si>
   <si>
     <t>491–492</t>
@@ -3824,7 +3824,7 @@
     <t>Andruhas</t>
   </si>
   <si>
-    <t>17 ч. 4 мин. 15 сек.</t>
+    <t>17 ч. 04 мин. 15 сек.</t>
   </si>
   <si>
     <t>494</t>
